--- a/LA of proteome data/1st proteome LA results/Sig. upregulated and downregulated proteins.xlsx
+++ b/LA of proteome data/1st proteome LA results/Sig. upregulated and downregulated proteins.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabde\OneDrive\Documents\UM documents\BMS Year 3\Internship + Thesis\Sabrina_BMS_Bachelor-Internship\R analysis of proteome data\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34420f5773a88cdb/Documents/UM documents/BMS Year 3/Internship ^M Thesis/Sabrina_BMS_Bachelor-Internship/LA of proteome data/1st proteome LA results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EB2694-B03F-4617-AB13-8985B51D72F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{98EB2694-B03F-4617-AB13-8985B51D72F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A2716557-3E0C-4B88-A64C-A847FB8BAC41}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-140" yWindow="0" windowWidth="10510" windowHeight="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>New Identifier</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t xml:space="preserve">10 upregulated and 15 downregulated </t>
+  </si>
+  <si>
+    <t>up/down regulated using cut off of +/-1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 downregulated </t>
   </si>
 </sst>
 </file>
@@ -485,21 +491,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7265625" style="5"/>
-    <col min="6" max="6" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,11 +525,12 @@
       <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -542,7 +550,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -562,7 +570,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -582,7 +590,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -602,7 +610,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -622,7 +630,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -642,7 +650,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -662,7 +670,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -682,7 +690,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -702,7 +710,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -722,7 +730,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -742,7 +750,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -762,7 +770,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -782,7 +790,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -802,7 +810,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -822,7 +830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -842,7 +850,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -862,7 +870,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -882,7 +890,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -902,7 +910,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -922,7 +930,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -942,7 +950,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
@@ -961,8 +969,11 @@
       <c r="F23" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
@@ -982,7 +993,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1002,7 +1013,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -1020,6 +1031,14 @@
       </c>
       <c r="F26" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/LA of proteome data/1st proteome LA results/Sig. upregulated and downregulated proteins.xlsx
+++ b/LA of proteome data/1st proteome LA results/Sig. upregulated and downregulated proteins.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34420f5773a88cdb/Documents/UM documents/BMS Year 3/Internship ^M Thesis/Sabrina_BMS_Bachelor-Internship/LA of proteome data/1st proteome LA results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{98EB2694-B03F-4617-AB13-8985B51D72F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A2716557-3E0C-4B88-A64C-A847FB8BAC41}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{98EB2694-B03F-4617-AB13-8985B51D72F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{84E2BAE0-0203-4403-ABA3-3834662E06F0}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-140" yWindow="0" windowWidth="10510" windowHeight="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="650" windowWidth="19240" windowHeight="10150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="36">
   <si>
     <t>New Identifier</t>
   </si>
@@ -126,13 +127,13 @@
     <t xml:space="preserve">up </t>
   </si>
   <si>
-    <t xml:space="preserve">10 upregulated and 15 downregulated </t>
-  </si>
-  <si>
     <t>up/down regulated using cut off of +/-1.5</t>
   </si>
   <si>
     <t xml:space="preserve">1 downregulated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 upregulated and 10 downregulated </t>
   </si>
 </sst>
 </file>
@@ -169,7 +170,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +180,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -195,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -211,6 +224,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -526,7 +543,7 @@
         <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" s="6"/>
     </row>
@@ -1035,13 +1052,448 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F27" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB85098F-23D0-4EDC-860C-B90E8788091E}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="5"/>
+    <col min="6" max="6" width="33.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="8">
+        <v>-1.0741776127723199</v>
+      </c>
+      <c r="C2" s="8">
+        <v>-0.398896082883333</v>
+      </c>
+      <c r="D2" s="8">
+        <v>-2.0077232998247201</v>
+      </c>
+      <c r="E2" s="8">
+        <v>4.9099125248842301E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="8">
+        <v>-0.52225936598660705</v>
+      </c>
+      <c r="C3" s="8">
+        <v>-1.2269614523833301</v>
+      </c>
+      <c r="D3" s="8">
+        <v>-2.36492584845558</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2.1224000874374802E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8">
+        <v>-0.45849209543750002</v>
+      </c>
+      <c r="C4" s="8">
+        <v>-1.7780746248166699</v>
+      </c>
+      <c r="D4" s="8">
+        <v>-3.7102284023462402</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4.4920497628624502E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="8">
+        <v>-0.40175156883482099</v>
+      </c>
+      <c r="C5" s="8">
+        <v>-4.3902551014500002</v>
+      </c>
+      <c r="D5" s="8">
+        <v>-2.0739112703582401</v>
+      </c>
+      <c r="E5" s="8">
+        <v>4.23080277156851E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="8">
+        <v>-0.301883993883928</v>
+      </c>
+      <c r="C6" s="8">
+        <v>-4.7735902191666701</v>
+      </c>
+      <c r="D6" s="8">
+        <v>-2.1784076077718502</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3.3242592772518099E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8">
+        <v>-0.30060827348214297</v>
+      </c>
+      <c r="C7" s="8">
+        <v>8.3732705130833303</v>
+      </c>
+      <c r="D7" s="8">
+        <v>-2.5972722997408901</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1.1756845152073999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>-0.29228854684821398</v>
+      </c>
+      <c r="C8" s="8">
+        <v>3.1853089317999999</v>
+      </c>
+      <c r="D8" s="8">
+        <v>-3.30585099406817</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1.58803082917788E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8">
+        <v>-0.26881095757142798</v>
+      </c>
+      <c r="C9" s="8">
+        <v>-1.13015018021667</v>
+      </c>
+      <c r="D9" s="8">
+        <v>-2.5651339748115198</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1.2783915747951499E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8">
+        <v>-0.245286637303571</v>
+      </c>
+      <c r="C10" s="8">
+        <v>3.0735714957833302</v>
+      </c>
+      <c r="D10" s="8">
+        <v>-2.5436448207926898</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1.3515353253045301E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="8">
+        <v>-0.16597777074107201</v>
+      </c>
+      <c r="C11" s="8">
+        <v>3.0520751609499999</v>
+      </c>
+      <c r="D11" s="8">
+        <v>-2.0009113846392101</v>
+      </c>
+      <c r="E11" s="8">
+        <v>4.9848572097848001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.16377086532589299</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.75630507915</v>
+      </c>
+      <c r="D12" s="10">
+        <v>2.1233078905074501</v>
+      </c>
+      <c r="E12" s="10">
+        <v>3.7785045127856402E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.16979017544196501</v>
+      </c>
+      <c r="C13" s="10">
+        <v>-5.1984824242999998</v>
+      </c>
+      <c r="D13" s="10">
+        <v>2.08607110450501</v>
+      </c>
+      <c r="E13" s="10">
+        <v>4.11531110604893E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.18581604722321399</v>
+      </c>
+      <c r="C14" s="10">
+        <v>-2.23576340093333</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2.1765430842286202</v>
+      </c>
+      <c r="E14" s="10">
+        <v>3.3388108493851397E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.18958363150892801</v>
+      </c>
+      <c r="C15" s="10">
+        <v>4.8645973545666701</v>
+      </c>
+      <c r="D15" s="10">
+        <v>2.53451098282035</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1.38375634600188E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0.19787829528125001</v>
+      </c>
+      <c r="C16" s="10">
+        <v>3.28841115881667</v>
+      </c>
+      <c r="D16" s="10">
+        <v>2.9578419658014599</v>
+      </c>
+      <c r="E16" s="10">
+        <v>4.4003002954691103E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0.21365265385714299</v>
+      </c>
+      <c r="C17" s="10">
+        <v>5.3121815144499998</v>
+      </c>
+      <c r="D17" s="10">
+        <v>3.1153939544010401</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2.7967953384325098E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0.27051496616517801</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.3490855008</v>
+      </c>
+      <c r="D18" s="10">
+        <v>2.61347570758709</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1.12679778888109E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0.28261678756696401</v>
+      </c>
+      <c r="C19" s="10">
+        <v>-1.23992649241667</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2.6857944372122402</v>
+      </c>
+      <c r="E19" s="10">
+        <v>9.3038376517730302E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0.34662054215624999</v>
+      </c>
+      <c r="C20" s="10">
+        <v>-3.67491633235</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2.27351266485215</v>
+      </c>
+      <c r="E20" s="10">
+        <v>2.6520962535462499E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0.38856687706249898</v>
+      </c>
+      <c r="C21" s="10">
+        <v>7.0299355020166701</v>
+      </c>
+      <c r="D21" s="10">
+        <v>2.7161739558829399</v>
+      </c>
+      <c r="E21" s="10">
+        <v>8.5763470243127495E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0.46983696898660698</v>
+      </c>
+      <c r="C22" s="10">
+        <v>-2.6204749138499999</v>
+      </c>
+      <c r="D22" s="10">
+        <v>3.2479534600417801</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1.89002556421264E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0.474751353428571</v>
+      </c>
+      <c r="C23" s="10">
+        <v>-2.0601873803499999</v>
+      </c>
+      <c r="D23" s="10">
+        <v>2.60047709828067</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1.16586515576277E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="10">
+        <v>0.62396064988839195</v>
+      </c>
+      <c r="C24" s="10">
+        <v>-2.6333976113333302</v>
+      </c>
+      <c r="D24" s="10">
+        <v>3.5728300295500302</v>
+      </c>
+      <c r="E24" s="10">
+        <v>6.9604513368774399E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E28">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>